--- a/l10n.xlsx
+++ b/l10n.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="576">
   <si>
     <t>en</t>
   </si>
@@ -1012,18 +1012,27 @@
     <t>cxtello.cmdmenu.back</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>后</t>
   </si>
   <si>
     <t>cxtello.cmdmenu.down</t>
   </si>
   <si>
+    <t>down</t>
+  </si>
+  <si>
     <t>下</t>
   </si>
   <si>
     <t>cxtello.cmdmenu.forward</t>
   </si>
   <si>
+    <t>forward</t>
+  </si>
+  <si>
     <t>前</t>
   </si>
   <si>
@@ -1036,39 +1045,63 @@
     <t>cxtello.cmdmenu.right</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>右</t>
   </si>
   <si>
     <t>cxtello.cmdmenu.up</t>
   </si>
   <si>
+    <t>up</t>
+  </si>
+  <si>
     <t>上</t>
   </si>
   <si>
     <t>cxtello.cwmenu.ccw</t>
   </si>
   <si>
+    <t>ccw</t>
+  </si>
+  <si>
     <t>逆时针</t>
   </si>
   <si>
     <t>cxtello.cwmenu.cw</t>
   </si>
   <si>
+    <t>cw</t>
+  </si>
+  <si>
     <t>顺时针</t>
   </si>
   <si>
     <t>cxtello.directionmenu.b</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>cxtello.directionmenu.f</t>
   </si>
   <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>cxtello.directionmenu.l</t>
   </si>
   <si>
+    <t>l</t>
+  </si>
+  <si>
     <t>cxtello.directionmenu.r</t>
   </si>
   <si>
+    <t>r</t>
+  </si>
+  <si>
     <t>eim.control_extension</t>
   </si>
   <si>
@@ -1363,9 +1396,6 @@
     <t>microbit.tiltDirectionMenu.back</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>microbit.tiltDirectionMenu.front</t>
   </si>
   <si>
@@ -1378,9 +1408,6 @@
     <t>microbit.tiltDirectionMenu.right</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>mpfshell.close</t>
   </si>
   <si>
@@ -1430,9 +1457,6 @@
   </si>
   <si>
     <t>ubtrobot.actionMenu.forward</t>
-  </si>
-  <si>
-    <t>forward</t>
   </si>
   <si>
     <t>ubtrobot.actionMenu.happy birthday</t>
@@ -3459,137 +3483,161 @@
       <c r="A117" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B117" t="s"/>
+      <c r="B117" t="s">
+        <v>332</v>
+      </c>
       <c r="C117" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D117" t="s"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B118" t="s"/>
+        <v>334</v>
+      </c>
+      <c r="B118" t="s">
+        <v>335</v>
+      </c>
       <c r="C118" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D118" t="s"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B119" t="s"/>
+        <v>337</v>
+      </c>
+      <c r="B119" t="s">
+        <v>338</v>
+      </c>
       <c r="C119" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D119" t="s"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B120" t="s"/>
+        <v>340</v>
+      </c>
+      <c r="B120" t="s">
+        <v>201</v>
+      </c>
       <c r="C120" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D120" t="s"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B121" t="s"/>
+        <v>342</v>
+      </c>
+      <c r="B121" t="s">
+        <v>343</v>
+      </c>
       <c r="C121" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D121" t="s"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B122" t="s"/>
+        <v>345</v>
+      </c>
+      <c r="B122" t="s">
+        <v>346</v>
+      </c>
       <c r="C122" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D122" t="s"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B123" t="s"/>
+        <v>348</v>
+      </c>
+      <c r="B123" t="s">
+        <v>349</v>
+      </c>
       <c r="C123" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D123" t="s"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B124" t="s"/>
+        <v>351</v>
+      </c>
+      <c r="B124" t="s">
+        <v>352</v>
+      </c>
       <c r="C124" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D124" t="s"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B125" t="s"/>
+        <v>354</v>
+      </c>
+      <c r="B125" t="s">
+        <v>355</v>
+      </c>
       <c r="C125" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D125" t="s"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B126" t="s"/>
+        <v>356</v>
+      </c>
+      <c r="B126" t="s">
+        <v>357</v>
+      </c>
       <c r="C126" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D126" t="s"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B127" t="s"/>
+        <v>358</v>
+      </c>
+      <c r="B127" t="s">
+        <v>359</v>
+      </c>
       <c r="C127" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D127" t="s"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B128" t="s"/>
+        <v>360</v>
+      </c>
+      <c r="B128" t="s">
+        <v>361</v>
+      </c>
       <c r="C128" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D128" t="s"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B129" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="C129" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="D129" t="s"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B130" t="s">
         <v>69</v>
@@ -3601,293 +3649,293 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B131" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C131" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="D131" t="s"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B132" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C132" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D132" t="s"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B133" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C133" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="D133" t="s"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B134" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C134" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="D134" t="s"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B135" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="C135" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D135" t="s"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B136" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C136" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="D136" t="s"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B137" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C137" t="s"/>
       <c r="D137" t="s"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B138" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C138" t="s"/>
       <c r="D138" t="s"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B139" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C139" t="s"/>
       <c r="D139" t="s"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B140" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C140" t="s"/>
       <c r="D140" t="s"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B141" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C141" t="s"/>
       <c r="D141" t="s"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B142" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C142" t="s"/>
       <c r="D142" t="s"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B143" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C143" t="s"/>
       <c r="D143" t="s"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="B144" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="C144" t="s"/>
       <c r="D144" t="s"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B145" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C145" t="s"/>
       <c r="D145" t="s"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B146" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C146" t="s"/>
       <c r="D146" t="s"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B147" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="C147" t="s"/>
       <c r="D147" t="s"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="B148" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C148" t="s"/>
       <c r="D148" t="s"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="B149" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="C149" t="s"/>
       <c r="D149" t="s"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B150" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C150" t="s"/>
       <c r="D150" t="s"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B151" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C151" t="s"/>
       <c r="D151" t="s"/>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B152" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C152" t="s"/>
       <c r="D152" t="s"/>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B153" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C153" t="s"/>
       <c r="D153" t="s"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B154" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C154" t="s"/>
       <c r="D154" t="s"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="B155" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C155" t="s"/>
       <c r="D155" t="s"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B156" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C156" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="D156" t="s"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="B157" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C157" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D157" t="s"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B158" t="s">
         <v>13</v>
@@ -3899,173 +3947,173 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B159" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C159" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D159" t="s"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B160" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="C160" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="D160" t="s"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B161" t="s"/>
       <c r="C161" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="D161" t="s"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B162" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="C162" t="s"/>
       <c r="D162" t="s"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B163" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C163" t="s"/>
       <c r="D163" t="s"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="B164" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C164" t="s"/>
       <c r="D164" t="s"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B165" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C165" t="s"/>
       <c r="D165" t="s"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B166" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C166" t="s"/>
       <c r="D166" t="s"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B167" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C167" t="s"/>
       <c r="D167" t="s"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B168" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C168" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="D168" t="s"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B169" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C169" t="s"/>
       <c r="D169" t="s"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B170" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C170" t="s"/>
       <c r="D170" t="s"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B171" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C171" t="s"/>
       <c r="D171" t="s"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B172" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="C172" t="s"/>
       <c r="D172" t="s"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B173" t="s">
-        <v>449</v>
+        <v>332</v>
       </c>
       <c r="C173" t="s"/>
       <c r="D173" t="s"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B174" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C174" t="s"/>
       <c r="D174" t="s"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B175" t="s">
         <v>201</v>
@@ -4075,17 +4123,17 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="B176" t="s">
-        <v>454</v>
+        <v>343</v>
       </c>
       <c r="C176" t="s"/>
       <c r="D176" t="s"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B177" t="s">
         <v>216</v>
@@ -4095,117 +4143,117 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B178" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C178" t="s"/>
       <c r="D178" t="s"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B179" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C179" t="s"/>
       <c r="D179" t="s"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B180" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C180" t="s"/>
       <c r="D180" t="s"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B181" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C181" t="s"/>
       <c r="D181" t="s"/>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B182" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C182" t="s"/>
       <c r="D182" t="s"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B183" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C183" t="s"/>
       <c r="D183" t="s"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B184" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C184" t="s"/>
       <c r="D184" t="s"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B185" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C185" t="s"/>
       <c r="D185" t="s"/>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B186" t="s">
-        <v>472</v>
+        <v>338</v>
       </c>
       <c r="C186" t="s"/>
       <c r="D186" t="s"/>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B187" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C187" t="s"/>
       <c r="D187" t="s"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B188" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="C188" t="s"/>
       <c r="D188" t="s"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B189" t="s">
         <v>201</v>
@@ -4215,37 +4263,37 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B190" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C190" t="s"/>
       <c r="D190" t="s"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B191" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C191" t="s"/>
       <c r="D191" t="s"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B192" t="s">
-        <v>454</v>
+        <v>343</v>
       </c>
       <c r="C192" t="s"/>
       <c r="D192" t="s"/>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B193" t="s">
         <v>226</v>
@@ -4255,321 +4303,321 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B194" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C194" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D194" t="s"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B195" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C195" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="D195" t="s"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B196" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C196" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D196" t="s"/>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B197" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C197" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D197" t="s"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B198" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C198" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D198" t="s"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B199" t="s">
         <v>132</v>
       </c>
       <c r="C199" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D199" t="s"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B200" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C200" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D200" t="s"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B201" t="s"/>
       <c r="C201" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D201" t="s"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B202" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C202" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D202" t="s"/>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B203" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C203" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D203" t="s"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B204" t="s"/>
       <c r="C204" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D204" t="s"/>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B205" t="s"/>
       <c r="C205" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D205" t="s"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B206" t="s"/>
       <c r="C206" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D206" t="s"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B207" t="s"/>
       <c r="C207" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D207" t="s"/>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B208" t="s"/>
       <c r="C208" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D208" t="s"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B209" t="s"/>
       <c r="C209" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="D209" t="s"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B210" t="s"/>
       <c r="C210" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D210" t="s"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B211" t="s"/>
       <c r="C211" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D211" t="s"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B212" t="s"/>
       <c r="C212" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="D212" t="s"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="B213" t="s"/>
       <c r="C213" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D213" t="s"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B214" t="s"/>
       <c r="C214" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="D214" t="s"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B215" t="s"/>
       <c r="C215" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D215" t="s"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B216" t="s"/>
       <c r="C216" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D216" t="s"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B217" t="s"/>
       <c r="C217" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D217" t="s"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="B218" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C218" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="D218" t="s"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B219" t="s"/>
       <c r="C219" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D219" t="s"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B220" t="s">
         <v>90</v>
       </c>
       <c r="C220" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D220" t="s"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B221" t="s"/>
       <c r="C221" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="D221" t="s"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B222" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="C222" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D222" t="s"/>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B223" t="s">
         <v>76</v>
@@ -4581,7 +4629,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B224" t="s">
         <v>69</v>
@@ -4593,7 +4641,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="1" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="B225" t="s">
         <v>81</v>
@@ -4605,7 +4653,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="1" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B226" t="s">
         <v>84</v>
@@ -4617,7 +4665,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="1" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B227" t="s">
         <v>87</v>
@@ -4629,7 +4677,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="1" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B228" t="s">
         <v>90</v>
@@ -4641,7 +4689,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="1" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="B229" t="s">
         <v>93</v>
@@ -4653,7 +4701,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="1" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B230" t="s">
         <v>96</v>
@@ -4665,37 +4713,37 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="1" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B231" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C231" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D231" t="s"/>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="1" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B232" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C232" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D232" t="s"/>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B233" t="s">
         <v>72</v>
       </c>
       <c r="C233" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D233" t="s"/>
     </row>

--- a/l10n.xlsx
+++ b/l10n.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="580">
   <si>
     <t>en</t>
   </si>
@@ -220,24 +220,39 @@
     <t>exec [content]</t>
   </si>
   <si>
+    <t>执行[content]并等待</t>
+  </si>
+  <si>
     <t>blender.getComingMessage</t>
   </si>
   <si>
     <t>received message</t>
   </si>
   <si>
+    <t>收到的消息</t>
+  </si>
+  <si>
     <t>blender.sendMessage</t>
   </si>
   <si>
+    <t>执行[content]</t>
+  </si>
+  <si>
     <t>blender.whenMessageReceive</t>
   </si>
   <si>
     <t>when I receive [content]</t>
   </si>
   <si>
+    <t>当接收到 [content]</t>
+  </si>
+  <si>
     <t>codelab.verify</t>
   </si>
   <si>
+    <t>verify [hass_https]</t>
+  </si>
+  <si>
     <t>验证 [hass_https]</t>
   </si>
   <si>
@@ -253,9 +268,6 @@
     <t>cozmo.getComingMessage</t>
   </si>
   <si>
-    <t>收到的消息</t>
-  </si>
-  <si>
     <t>cozmo.move</t>
   </si>
   <si>
@@ -1321,45 +1333,12 @@
     <t>knn.train</t>
   </si>
   <si>
+    <t>Train label [type] [STRING]</t>
+  </si>
+  <si>
     <t>训练 [type] [STRING]</t>
   </si>
   <si>
-    <t>knn.trainA</t>
-  </si>
-  <si>
-    <t>Train label 1 [STRING]</t>
-  </si>
-  <si>
-    <t>knn.trainB</t>
-  </si>
-  <si>
-    <t>Train label 2 [STRING]</t>
-  </si>
-  <si>
-    <t>knn.trainC</t>
-  </si>
-  <si>
-    <t>Train label 3 [STRING]</t>
-  </si>
-  <si>
-    <t>knn.trainD</t>
-  </si>
-  <si>
-    <t>Train label 4 [STRING]</t>
-  </si>
-  <si>
-    <t>knn.trainE</t>
-  </si>
-  <si>
-    <t>Train label 5 [STRING]</t>
-  </si>
-  <si>
-    <t>knn.trainF</t>
-  </si>
-  <si>
-    <t>Train label 6 [STRING]</t>
-  </si>
-  <si>
     <t>knn.whenGetResult</t>
   </si>
   <si>
@@ -1372,42 +1351,30 @@
     <t>leapMotion.handFingerdipPosition</t>
   </si>
   <si>
+    <t>hand [Hand] finger [Finger] coordinate [Coordinate]</t>
+  </si>
+  <si>
     <t>手 [Hand] 手指 [Finger] 位置 [Coordinate]</t>
   </si>
   <si>
     <t>leapMotion.handPositon</t>
   </si>
   <si>
+    <t>hand [Hand] coordinate [Coordinate]</t>
+  </si>
+  <si>
     <t>手 [Hand] 位置 [Coordinate]</t>
   </si>
   <si>
     <t>leapMotion.handRotation</t>
   </si>
   <si>
+    <t>hand [Hand] rotation</t>
+  </si>
+  <si>
     <t>手 [Hand] 旋转</t>
   </si>
   <si>
-    <t>microbit.tiltDirectionMenu.any</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>microbit.tiltDirectionMenu.back</t>
-  </si>
-  <si>
-    <t>microbit.tiltDirectionMenu.front</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>microbit.tiltDirectionMenu.left</t>
-  </si>
-  <si>
-    <t>microbit.tiltDirectionMenu.right</t>
-  </si>
-  <si>
     <t>mpfshell.close</t>
   </si>
   <si>
@@ -1555,7 +1522,7 @@
     <t>usbMicrobit.get_accelerometer</t>
   </si>
   <si>
-    <t>加速度[ACCELEROMETER_PARAM]</t>
+    <t>Accelerometer [ACCELEROMETER_PARAM]</t>
   </si>
   <si>
     <t>usbMicrobit.get_analog_input</t>
@@ -1579,84 +1546,126 @@
     <t>usbMicrobit.iconMenu.angry</t>
   </si>
   <si>
+    <t>angry</t>
+  </si>
+  <si>
     <t>生气</t>
   </si>
   <si>
     <t>usbMicrobit.iconMenu.asleep</t>
   </si>
   <si>
+    <t>asleep</t>
+  </si>
+  <si>
     <t>睡觉</t>
   </si>
   <si>
     <t>usbMicrobit.iconMenu.confused</t>
   </si>
   <si>
+    <t>confused</t>
+  </si>
+  <si>
     <t>疑惑</t>
   </si>
   <si>
     <t>usbMicrobit.iconMenu.fabulous</t>
   </si>
   <si>
+    <t>fabulous</t>
+  </si>
+  <si>
     <t>真棒</t>
   </si>
   <si>
     <t>usbMicrobit.iconMenu.happy</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>开心</t>
   </si>
   <si>
     <t>usbMicrobit.iconMenu.heart</t>
   </si>
   <si>
+    <t>heart</t>
+  </si>
+  <si>
     <t>大爱心</t>
   </si>
   <si>
     <t>usbMicrobit.iconMenu.heart_small</t>
   </si>
   <si>
+    <t>heart_small</t>
+  </si>
+  <si>
     <t>小爱心</t>
   </si>
   <si>
     <t>usbMicrobit.iconMenu.meh</t>
   </si>
   <si>
+    <t>meh</t>
+  </si>
+  <si>
     <t>无聊</t>
   </si>
   <si>
     <t>usbMicrobit.iconMenu.no</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>拒绝</t>
   </si>
   <si>
     <t>usbMicrobit.iconMenu.sad</t>
   </si>
   <si>
+    <t>sad</t>
+  </si>
+  <si>
     <t>伤心</t>
   </si>
   <si>
     <t>usbMicrobit.iconMenu.silly</t>
   </si>
   <si>
+    <t>silly</t>
+  </si>
+  <si>
     <t>蠢盟</t>
   </si>
   <si>
     <t>usbMicrobit.iconMenu.smile</t>
   </si>
   <si>
+    <t>smile</t>
+  </si>
+  <si>
     <t>微笑</t>
   </si>
   <si>
     <t>usbMicrobit.iconMenu.surprised</t>
   </si>
   <si>
+    <t>surprised</t>
+  </si>
+  <si>
     <t>惊喜</t>
   </si>
   <si>
     <t>usbMicrobit.iconMenu.yes</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>胜利</t>
   </si>
   <si>
@@ -1682,6 +1691,9 @@
   </si>
   <si>
     <t>usbMicrobit.showIcon</t>
+  </si>
+  <si>
+    <t>showIcon [ICON_PARAM]</t>
   </si>
   <si>
     <t>显示图像[ICON_PARAM]</t>
@@ -2090,7 +2102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2368,1574 +2380,1584 @@
       <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s"/>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
       <c r="D23" t="s"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
       <c r="D24" t="s"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s"/>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
       <c r="D25" t="s"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
       <c r="D26" t="s"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D53" t="s"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D61" t="s"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D62" t="s"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D63" t="s"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D64" t="s"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D65" t="s"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D66" t="s"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D67" t="s"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B68" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D68" t="s"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D69" t="s"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D70" t="s"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B71" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D71" t="s"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C72" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D72" t="s"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D73" t="s"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D74" t="s"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" t="s">
         <v>215</v>
-      </c>
-      <c r="B75" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75" t="s">
-        <v>211</v>
       </c>
       <c r="D75" t="s"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B76" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" t="s">
         <v>218</v>
-      </c>
-      <c r="C76" t="s">
-        <v>214</v>
       </c>
       <c r="D76" t="s"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B77" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C77" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D77" t="s"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C78" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D78" t="s"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D79" t="s"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D80" t="s"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B81" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" t="s">
         <v>218</v>
-      </c>
-      <c r="C81" t="s">
-        <v>214</v>
       </c>
       <c r="D81" t="s"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B82" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D82" t="s"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B83" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C83" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D83" t="s"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D84" t="s"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C85" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D85" t="s"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C86" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D86" t="s"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C87" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D87" t="s"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C88" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D88" t="s"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C89" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D89" t="s"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B90" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C90" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D90" t="s"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B91" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C91" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D91" t="s"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C92" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D92" t="s"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B93" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D93" t="s"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C94" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D94" t="s"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B95" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C95" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D95" t="s"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B96" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C96" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D96" t="s"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B97" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C97" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D97" t="s"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C98" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D98" t="s"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C99" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D99" t="s"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B100" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C100" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D100" t="s"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B101" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C101" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D101" t="s"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C102" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D102" t="s"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C103" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D103" t="s"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B104" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C104" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D104" t="s"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B105" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C105" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D105" t="s"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B106" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C106" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D106" t="s"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B107" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C107" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D107" t="s"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B108" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C108" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D108" t="s"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B109" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C109" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D109" t="s"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B110" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C110" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D110" t="s"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B111" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C111" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D111" t="s"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B112" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C112" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D112" t="s"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B113" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C113" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D113" t="s"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B114" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C114" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D114" t="s"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B115" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C115" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D115" t="s"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B116" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C116" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D116" t="s"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B117" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C117" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D117" t="s"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B118" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C118" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D118" t="s"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B119" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C119" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D119" t="s"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B120" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C120" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D120" t="s"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B121" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C121" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D121" t="s"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B122" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C122" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D122" t="s"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B123" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C123" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D123" t="s"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B124" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C124" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D124" t="s"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B125" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C125" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D125" t="s"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B126" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C126" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D126" t="s"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B127" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C127" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D127" t="s"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B128" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C128" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D128" t="s"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B129" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C129" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D129" t="s"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B130" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C130" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D130" t="s"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B131" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C131" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D131" t="s"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B132" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C132" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D132" t="s"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B133" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C133" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D133" t="s"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B134" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C134" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D134" t="s"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B135" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C135" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D135" t="s"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B136" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C136" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D136" t="s"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B137" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C137" t="s"/>
       <c r="D137" t="s"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B138" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C138" t="s"/>
       <c r="D138" t="s"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B139" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C139" t="s"/>
       <c r="D139" t="s"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B140" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C140" t="s"/>
       <c r="D140" t="s"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B141" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C141" t="s"/>
       <c r="D141" t="s"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B142" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C142" t="s"/>
       <c r="D142" t="s"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B143" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C143" t="s"/>
       <c r="D143" t="s"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B144" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C144" t="s"/>
       <c r="D144" t="s"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B145" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C145" t="s"/>
       <c r="D145" t="s"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B146" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C146" t="s"/>
       <c r="D146" t="s"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B147" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C147" t="s"/>
       <c r="D147" t="s"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B148" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C148" t="s"/>
       <c r="D148" t="s"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B149" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C149" t="s"/>
       <c r="D149" t="s"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B150" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C150" t="s"/>
       <c r="D150" t="s"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B151" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C151" t="s"/>
       <c r="D151" t="s"/>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B152" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C152" t="s"/>
       <c r="D152" t="s"/>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B153" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C153" t="s"/>
       <c r="D153" t="s"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B154" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C154" t="s"/>
       <c r="D154" t="s"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B155" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C155" t="s"/>
       <c r="D155" t="s"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B156" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C156" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D156" t="s"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B157" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C157" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D157" t="s"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B158" t="s">
         <v>13</v>
@@ -3947,805 +3969,735 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B159" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C159" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D159" t="s"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B160" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C160" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D160" t="s"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B161" t="s"/>
+        <v>438</v>
+      </c>
+      <c r="B161" t="s">
+        <v>439</v>
+      </c>
       <c r="C161" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D161" t="s"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B162" t="s">
-        <v>437</v>
-      </c>
-      <c r="C162" t="s"/>
+        <v>442</v>
+      </c>
+      <c r="C162" t="s">
+        <v>443</v>
+      </c>
       <c r="D162" t="s"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B163" t="s">
-        <v>439</v>
-      </c>
-      <c r="C163" t="s"/>
+        <v>445</v>
+      </c>
+      <c r="C163" t="s">
+        <v>446</v>
+      </c>
       <c r="D163" t="s"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B164" t="s">
-        <v>441</v>
-      </c>
-      <c r="C164" t="s"/>
+        <v>448</v>
+      </c>
+      <c r="C164" t="s">
+        <v>449</v>
+      </c>
       <c r="D164" t="s"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B165" t="s">
-        <v>443</v>
-      </c>
-      <c r="C165" t="s"/>
+        <v>451</v>
+      </c>
+      <c r="C165" t="s">
+        <v>452</v>
+      </c>
       <c r="D165" t="s"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B166" t="s">
-        <v>445</v>
+        <v>220</v>
       </c>
       <c r="C166" t="s"/>
       <c r="D166" t="s"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B167" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C167" t="s"/>
       <c r="D167" t="s"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B168" t="s">
-        <v>449</v>
-      </c>
-      <c r="C168" t="s">
-        <v>450</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C168" t="s"/>
       <c r="D168" t="s"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B169" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C169" t="s"/>
       <c r="D169" t="s"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B170" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C170" t="s"/>
       <c r="D170" t="s"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B171" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C171" t="s"/>
       <c r="D171" t="s"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B172" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C172" t="s"/>
       <c r="D172" t="s"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B173" t="s">
-        <v>332</v>
+        <v>466</v>
       </c>
       <c r="C173" t="s"/>
       <c r="D173" t="s"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B174" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C174" t="s"/>
       <c r="D174" t="s"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B175" t="s">
-        <v>201</v>
+        <v>342</v>
       </c>
       <c r="C175" t="s"/>
       <c r="D175" t="s"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B176" t="s">
-        <v>343</v>
+        <v>471</v>
       </c>
       <c r="C176" t="s"/>
       <c r="D176" t="s"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B177" t="s">
-        <v>216</v>
+        <v>473</v>
       </c>
       <c r="C177" t="s"/>
       <c r="D177" t="s"/>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B178" t="s">
-        <v>466</v>
+        <v>205</v>
       </c>
       <c r="C178" t="s"/>
       <c r="D178" t="s"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B179" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C179" t="s"/>
       <c r="D179" t="s"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B180" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="C180" t="s"/>
       <c r="D180" t="s"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B181" t="s">
-        <v>471</v>
+        <v>347</v>
       </c>
       <c r="C181" t="s"/>
       <c r="D181" t="s"/>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B182" t="s">
-        <v>473</v>
+        <v>230</v>
       </c>
       <c r="C182" t="s"/>
       <c r="D182" t="s"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B183" t="s">
-        <v>475</v>
-      </c>
-      <c r="C183" t="s"/>
+        <v>482</v>
+      </c>
+      <c r="C183" t="s">
+        <v>483</v>
+      </c>
       <c r="D183" t="s"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B184" t="s">
-        <v>477</v>
-      </c>
-      <c r="C184" t="s"/>
+        <v>485</v>
+      </c>
+      <c r="C184" t="s">
+        <v>486</v>
+      </c>
       <c r="D184" t="s"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B185" t="s">
-        <v>479</v>
-      </c>
-      <c r="C185" t="s"/>
+        <v>488</v>
+      </c>
+      <c r="C185" t="s">
+        <v>489</v>
+      </c>
       <c r="D185" t="s"/>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B186" t="s">
-        <v>338</v>
-      </c>
-      <c r="C186" t="s"/>
+        <v>491</v>
+      </c>
+      <c r="C186" t="s">
+        <v>492</v>
+      </c>
       <c r="D186" t="s"/>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="B187" t="s">
-        <v>482</v>
-      </c>
-      <c r="C187" t="s"/>
+        <v>494</v>
+      </c>
+      <c r="C187" t="s">
+        <v>495</v>
+      </c>
       <c r="D187" t="s"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="B188" t="s">
-        <v>484</v>
-      </c>
-      <c r="C188" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="C188" t="s">
+        <v>497</v>
+      </c>
       <c r="D188" t="s"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B189" t="s">
-        <v>201</v>
-      </c>
-      <c r="C189" t="s"/>
+        <v>499</v>
+      </c>
+      <c r="C189" t="s">
+        <v>500</v>
+      </c>
       <c r="D189" t="s"/>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B190" t="s">
-        <v>487</v>
-      </c>
-      <c r="C190" t="s"/>
+        <v>501</v>
+      </c>
+      <c r="B190" t="s"/>
+      <c r="C190" t="s">
+        <v>502</v>
+      </c>
       <c r="D190" t="s"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="B191" t="s">
-        <v>489</v>
-      </c>
-      <c r="C191" t="s"/>
+        <v>504</v>
+      </c>
+      <c r="C191" t="s">
+        <v>505</v>
+      </c>
       <c r="D191" t="s"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="B192" t="s">
-        <v>343</v>
-      </c>
-      <c r="C192" t="s"/>
+        <v>507</v>
+      </c>
+      <c r="C192" t="s">
+        <v>508</v>
+      </c>
       <c r="D192" t="s"/>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="B193" t="s">
-        <v>226</v>
-      </c>
-      <c r="C193" t="s"/>
+        <v>510</v>
+      </c>
+      <c r="C193" t="s">
+        <v>511</v>
+      </c>
       <c r="D193" t="s"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="B194" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="C194" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="D194" t="s"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="B195" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="C195" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="D195" t="s"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="B196" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="C196" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D196" t="s"/>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="B197" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="C197" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="D197" t="s"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="B198" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="C198" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="D198" t="s"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="B199" t="s">
-        <v>132</v>
+        <v>528</v>
       </c>
       <c r="C199" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="D199" t="s"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="B200" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="C200" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="D200" t="s"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B201" t="s"/>
+        <v>533</v>
+      </c>
+      <c r="B201" t="s">
+        <v>534</v>
+      </c>
       <c r="C201" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="D201" t="s"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="B202" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="C202" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="D202" t="s"/>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="B203" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="C203" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="D203" t="s"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B204" t="s"/>
+        <v>542</v>
+      </c>
+      <c r="B204" t="s">
+        <v>543</v>
+      </c>
       <c r="C204" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="D204" t="s"/>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B205" t="s"/>
+        <v>545</v>
+      </c>
+      <c r="B205" t="s">
+        <v>546</v>
+      </c>
       <c r="C205" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="D205" t="s"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B206" t="s"/>
+        <v>548</v>
+      </c>
+      <c r="B206" t="s">
+        <v>549</v>
+      </c>
       <c r="C206" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="D206" t="s"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B207" t="s"/>
+        <v>551</v>
+      </c>
+      <c r="B207" t="s">
+        <v>552</v>
+      </c>
       <c r="C207" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="D207" t="s"/>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B208" t="s"/>
+        <v>554</v>
+      </c>
+      <c r="B208" t="s">
+        <v>91</v>
+      </c>
       <c r="C208" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="D208" t="s"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B209" t="s"/>
+        <v>556</v>
+      </c>
+      <c r="B209" t="s">
+        <v>94</v>
+      </c>
       <c r="C209" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="D209" t="s"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B210" t="s"/>
+        <v>558</v>
+      </c>
+      <c r="B210" t="s">
+        <v>559</v>
+      </c>
       <c r="C210" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="D210" t="s"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B211" t="s"/>
+        <v>561</v>
+      </c>
+      <c r="B211" t="s">
+        <v>562</v>
+      </c>
       <c r="C211" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="D211" t="s"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B212" t="s"/>
+        <v>564</v>
+      </c>
+      <c r="B212" t="s">
+        <v>81</v>
+      </c>
       <c r="C212" t="s">
-        <v>537</v>
+        <v>82</v>
       </c>
       <c r="D212" t="s"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B213" t="s"/>
+        <v>565</v>
+      </c>
+      <c r="B213" t="s">
+        <v>70</v>
+      </c>
       <c r="C213" t="s">
-        <v>539</v>
+        <v>71</v>
       </c>
       <c r="D213" t="s"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B214" t="s"/>
+        <v>566</v>
+      </c>
+      <c r="B214" t="s">
+        <v>85</v>
+      </c>
       <c r="C214" t="s">
-        <v>541</v>
+        <v>86</v>
       </c>
       <c r="D214" t="s"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B215" t="s"/>
+        <v>567</v>
+      </c>
+      <c r="B215" t="s">
+        <v>88</v>
+      </c>
       <c r="C215" t="s">
-        <v>543</v>
+        <v>89</v>
       </c>
       <c r="D215" t="s"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B216" t="s"/>
+        <v>568</v>
+      </c>
+      <c r="B216" t="s">
+        <v>91</v>
+      </c>
       <c r="C216" t="s">
-        <v>545</v>
+        <v>92</v>
       </c>
       <c r="D216" t="s"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B217" t="s"/>
+        <v>569</v>
+      </c>
+      <c r="B217" t="s">
+        <v>94</v>
+      </c>
       <c r="C217" t="s">
-        <v>547</v>
+        <v>95</v>
       </c>
       <c r="D217" t="s"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="B218" t="s">
-        <v>549</v>
+        <v>97</v>
       </c>
       <c r="C218" t="s">
-        <v>550</v>
+        <v>98</v>
       </c>
       <c r="D218" t="s"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B219" t="s"/>
+        <v>571</v>
+      </c>
+      <c r="B219" t="s">
+        <v>100</v>
+      </c>
       <c r="C219" t="s">
-        <v>552</v>
+        <v>101</v>
       </c>
       <c r="D219" t="s"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="B220" t="s">
-        <v>90</v>
+        <v>573</v>
       </c>
       <c r="C220" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="D220" t="s"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B221" t="s"/>
+        <v>575</v>
+      </c>
+      <c r="B221" t="s">
+        <v>576</v>
+      </c>
       <c r="C221" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="D221" t="s"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="B222" t="s">
-        <v>558</v>
+        <v>75</v>
       </c>
       <c r="C222" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="D222" t="s"/>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B223" t="s">
-        <v>76</v>
-      </c>
-      <c r="C223" t="s">
-        <v>77</v>
-      </c>
-      <c r="D223" t="s"/>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B224" t="s">
-        <v>69</v>
-      </c>
-      <c r="C224" t="s">
-        <v>79</v>
-      </c>
-      <c r="D224" t="s"/>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B225" t="s">
-        <v>81</v>
-      </c>
-      <c r="C225" t="s">
-        <v>82</v>
-      </c>
-      <c r="D225" t="s"/>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B226" t="s">
-        <v>84</v>
-      </c>
-      <c r="C226" t="s">
-        <v>85</v>
-      </c>
-      <c r="D226" t="s"/>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B227" t="s">
-        <v>87</v>
-      </c>
-      <c r="C227" t="s">
-        <v>88</v>
-      </c>
-      <c r="D227" t="s"/>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B228" t="s">
-        <v>90</v>
-      </c>
-      <c r="C228" t="s">
-        <v>91</v>
-      </c>
-      <c r="D228" t="s"/>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B229" t="s">
-        <v>93</v>
-      </c>
-      <c r="C229" t="s">
-        <v>94</v>
-      </c>
-      <c r="D229" t="s"/>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B230" t="s">
-        <v>96</v>
-      </c>
-      <c r="C230" t="s">
-        <v>97</v>
-      </c>
-      <c r="D230" t="s"/>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B231" t="s">
-        <v>569</v>
-      </c>
-      <c r="C231" t="s">
-        <v>570</v>
-      </c>
-      <c r="D231" t="s"/>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B232" t="s">
-        <v>572</v>
-      </c>
-      <c r="C232" t="s">
-        <v>573</v>
-      </c>
-      <c r="D232" t="s"/>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B233" t="s">
-        <v>72</v>
-      </c>
-      <c r="C233" t="s">
-        <v>575</v>
-      </c>
-      <c r="D233" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/l10n.xlsx
+++ b/l10n.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="583">
   <si>
     <t>en</t>
   </si>
@@ -1147,7 +1147,7 @@
     <t>broadcast [content] and wait</t>
   </si>
   <si>
-    <t>广播 [content] 然后等待</t>
+    <t>广播[content]并等待</t>
   </si>
   <si>
     <t>eim.sendTopicMessage</t>
@@ -1157,6 +1157,15 @@
   </si>
   <si>
     <t>广播 [TOPIC] [DATA]</t>
+  </si>
+  <si>
+    <t>eim.sendTopicMessageAndWait</t>
+  </si>
+  <si>
+    <t>broadcast [extension_id] [content] and wait</t>
+  </si>
+  <si>
+    <t>广播[extension_id][content]并等待</t>
   </si>
   <si>
     <t>eim.whenMessageReceive</t>
@@ -2102,7 +2111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3748,199 +3757,199 @@
       <c r="B137" t="s">
         <v>388</v>
       </c>
-      <c r="C137" t="s"/>
+      <c r="C137" t="s">
+        <v>389</v>
+      </c>
       <c r="D137" t="s"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B138" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C138" t="s"/>
       <c r="D138" t="s"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B139" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C139" t="s"/>
       <c r="D139" t="s"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B140" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C140" t="s"/>
       <c r="D140" t="s"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B141" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C141" t="s"/>
       <c r="D141" t="s"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B142" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C142" t="s"/>
       <c r="D142" t="s"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B143" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C143" t="s"/>
       <c r="D143" t="s"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B144" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C144" t="s"/>
       <c r="D144" t="s"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B145" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C145" t="s"/>
       <c r="D145" t="s"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B146" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C146" t="s"/>
       <c r="D146" t="s"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B147" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C147" t="s"/>
       <c r="D147" t="s"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B148" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C148" t="s"/>
       <c r="D148" t="s"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B149" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C149" t="s"/>
       <c r="D149" t="s"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B150" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C150" t="s"/>
       <c r="D150" t="s"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B151" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C151" t="s"/>
       <c r="D151" t="s"/>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B152" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C152" t="s"/>
       <c r="D152" t="s"/>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B153" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C153" t="s"/>
       <c r="D153" t="s"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B154" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C154" t="s"/>
       <c r="D154" t="s"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B155" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C155" t="s"/>
       <c r="D155" t="s"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B156" t="s">
-        <v>426</v>
-      </c>
-      <c r="C156" t="s">
         <v>427</v>
       </c>
+      <c r="C156" t="s"/>
       <c r="D156" t="s"/>
     </row>
     <row r="157" spans="1:4">
@@ -3960,22 +3969,22 @@
         <v>431</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>432</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>433</v>
       </c>
       <c r="D158" t="s"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B159" t="s">
-        <v>433</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>434</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s"/>
     </row>
@@ -4056,34 +4065,36 @@
         <v>453</v>
       </c>
       <c r="B166" t="s">
-        <v>220</v>
-      </c>
-      <c r="C166" t="s"/>
+        <v>454</v>
+      </c>
+      <c r="C166" t="s">
+        <v>455</v>
+      </c>
       <c r="D166" t="s"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B167" t="s">
-        <v>455</v>
+        <v>220</v>
       </c>
       <c r="C167" t="s"/>
       <c r="D167" t="s"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B168" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C168" t="s"/>
       <c r="D168" t="s"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B169" t="s">
         <v>458</v>
@@ -4093,144 +4104,142 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B170" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C170" t="s"/>
       <c r="D170" t="s"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B171" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C171" t="s"/>
       <c r="D171" t="s"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B172" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C172" t="s"/>
       <c r="D172" t="s"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B173" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C173" t="s"/>
       <c r="D173" t="s"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B174" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C174" t="s"/>
       <c r="D174" t="s"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B175" t="s">
-        <v>342</v>
+        <v>471</v>
       </c>
       <c r="C175" t="s"/>
       <c r="D175" t="s"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B176" t="s">
-        <v>471</v>
+        <v>342</v>
       </c>
       <c r="C176" t="s"/>
       <c r="D176" t="s"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B177" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C177" t="s"/>
       <c r="D177" t="s"/>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B178" t="s">
-        <v>205</v>
+        <v>476</v>
       </c>
       <c r="C178" t="s"/>
       <c r="D178" t="s"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B179" t="s">
-        <v>476</v>
+        <v>205</v>
       </c>
       <c r="C179" t="s"/>
       <c r="D179" t="s"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B180" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C180" t="s"/>
       <c r="D180" t="s"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B181" t="s">
-        <v>347</v>
+        <v>481</v>
       </c>
       <c r="C181" t="s"/>
       <c r="D181" t="s"/>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B182" t="s">
-        <v>230</v>
+        <v>347</v>
       </c>
       <c r="C182" t="s"/>
       <c r="D182" t="s"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B183" t="s">
-        <v>482</v>
-      </c>
-      <c r="C183" t="s">
-        <v>483</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C183" t="s"/>
       <c r="D183" t="s"/>
     </row>
     <row r="184" spans="1:4">
@@ -4286,19 +4295,19 @@
         <v>496</v>
       </c>
       <c r="B188" t="s">
-        <v>136</v>
+        <v>497</v>
       </c>
       <c r="C188" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D188" t="s"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B189" t="s">
-        <v>499</v>
+        <v>136</v>
       </c>
       <c r="C189" t="s">
         <v>500</v>
@@ -4309,19 +4318,19 @@
       <c r="A190" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B190" t="s"/>
+      <c r="B190" t="s">
+        <v>502</v>
+      </c>
       <c r="C190" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D190" t="s"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B191" t="s">
         <v>504</v>
       </c>
+      <c r="B191" t="s"/>
       <c r="C191" t="s">
         <v>505</v>
       </c>
@@ -4524,31 +4533,31 @@
         <v>554</v>
       </c>
       <c r="B208" t="s">
-        <v>91</v>
+        <v>555</v>
       </c>
       <c r="C208" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D208" t="s"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B209" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C209" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D209" t="s"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B210" t="s">
-        <v>559</v>
+        <v>94</v>
       </c>
       <c r="C210" t="s">
         <v>560</v>
@@ -4572,106 +4581,106 @@
         <v>564</v>
       </c>
       <c r="B212" t="s">
-        <v>81</v>
+        <v>565</v>
       </c>
       <c r="C212" t="s">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="D212" t="s"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B213" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C213" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D213" t="s"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B214" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C214" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D214" t="s"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B215" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C215" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D215" t="s"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B216" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C216" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D216" t="s"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B217" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C217" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D217" t="s"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B218" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C218" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D218" t="s"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B219" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C219" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D219" t="s"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B220" t="s">
-        <v>573</v>
+        <v>100</v>
       </c>
       <c r="C220" t="s">
-        <v>574</v>
+        <v>101</v>
       </c>
       <c r="D220" t="s"/>
     </row>
@@ -4692,12 +4701,24 @@
         <v>578</v>
       </c>
       <c r="B222" t="s">
+        <v>579</v>
+      </c>
+      <c r="C222" t="s">
+        <v>580</v>
+      </c>
+      <c r="D222" t="s"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B223" t="s">
         <v>75</v>
       </c>
-      <c r="C222" t="s">
-        <v>579</v>
-      </c>
-      <c r="D222" t="s"/>
+      <c r="C223" t="s">
+        <v>582</v>
+      </c>
+      <c r="D223" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
